--- a/storage/app/public/download-sample-file/rso-sample.xlsx
+++ b/storage/app/public/download-sample-file/rso-sample.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EMIL\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB918AC1-DFB1-49F3-8974-0C0F800C6BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE88E0D0-593D-4BDA-BD07-87ECDCB0D2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="13980" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Worksheet!$A$1:$AH$27</definedName>
+  </definedNames>
   <calcPr calcId="191029" forceFullCalc="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="187">
   <si>
     <t>DD Code</t>
   </si>
@@ -134,58 +137,466 @@
     <t>Joining Date</t>
   </si>
   <si>
+    <t>Bhairab</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>SSC</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Mamun Mia</t>
+  </si>
+  <si>
+    <t>Momena Khatun</t>
+  </si>
+  <si>
+    <t>HLPV</t>
+  </si>
+  <si>
+    <t>IMS</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Kishoreganj</t>
+  </si>
+  <si>
+    <t>KISHOREGANJ BRANCH</t>
+  </si>
+  <si>
+    <t>SR-26</t>
+  </si>
+  <si>
     <t>MYMVAI01</t>
   </si>
   <si>
-    <t>Rso 01</t>
-  </si>
-  <si>
-    <t>RS045566</t>
-  </si>
-  <si>
-    <t>OSRM4400</t>
-  </si>
-  <si>
-    <t>EMP0011</t>
-  </si>
-  <si>
-    <t>DBBL</t>
-  </si>
-  <si>
-    <t>Bhairab</t>
-  </si>
-  <si>
-    <t>Islam</t>
-  </si>
-  <si>
-    <t>SSC</t>
-  </si>
-  <si>
-    <t>O+</t>
-  </si>
-  <si>
-    <t>Mamun Mia</t>
-  </si>
-  <si>
-    <t>Momena Khatun</t>
-  </si>
-  <si>
-    <t>HLPV</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>IMS</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Kishoreganj</t>
+    <t>MYMVAI02</t>
+  </si>
+  <si>
+    <t>MD. ALI HOSSAIN</t>
+  </si>
+  <si>
+    <t>Safiqul Islam</t>
+  </si>
+  <si>
+    <t>Saddam</t>
+  </si>
+  <si>
+    <t>Badiuzzaman</t>
+  </si>
+  <si>
+    <t>Md. Golam Mostufa</t>
+  </si>
+  <si>
+    <t>RIPON RANA</t>
+  </si>
+  <si>
+    <t>MD. RASEL MIA</t>
+  </si>
+  <si>
+    <t>Robin Mia</t>
+  </si>
+  <si>
+    <t>Md. Thouhul Amin</t>
+  </si>
+  <si>
+    <t>MD POROSH MIAH</t>
+  </si>
+  <si>
+    <t>MD. Hasan Mia</t>
+  </si>
+  <si>
+    <t>ABUL BASHER RANA</t>
+  </si>
+  <si>
+    <t>MAHMUD HASAN EMON</t>
+  </si>
+  <si>
+    <t>MD MIJANUR RAHMAN</t>
+  </si>
+  <si>
+    <t>Hridoy Mia</t>
+  </si>
+  <si>
+    <t>Md. Hridoy Mia</t>
+  </si>
+  <si>
+    <t>SAHADAT HOSSAIN</t>
+  </si>
+  <si>
+    <t>Mijan</t>
+  </si>
+  <si>
+    <t>Hossain Bhuyan</t>
+  </si>
+  <si>
+    <t>Md. Mamun Mia</t>
+  </si>
+  <si>
+    <t>RIAZ AHMED</t>
+  </si>
+  <si>
+    <t>FERDOUS MIA</t>
+  </si>
+  <si>
+    <t>MD MOKHTAKIN</t>
+  </si>
+  <si>
+    <t>Md. Shahin mia</t>
+  </si>
+  <si>
+    <t>Opi Ahmed Shuvo</t>
+  </si>
+  <si>
+    <t>RS042015</t>
+  </si>
+  <si>
+    <t>RS044895</t>
+  </si>
+  <si>
+    <t>RS044898</t>
+  </si>
+  <si>
+    <t>RS019531</t>
+  </si>
+  <si>
+    <t>RS0101</t>
+  </si>
+  <si>
+    <t>RS042590</t>
+  </si>
+  <si>
+    <t>RS044900</t>
+  </si>
+  <si>
+    <t>RS044901</t>
+  </si>
+  <si>
+    <t>RS044902</t>
+  </si>
+  <si>
+    <t>RS039496</t>
+  </si>
+  <si>
+    <t>RS044903</t>
+  </si>
+  <si>
+    <t>RS044904</t>
+  </si>
+  <si>
+    <t>RS044908</t>
+  </si>
+  <si>
+    <t>RS044421</t>
+  </si>
+  <si>
+    <t>RS044905</t>
+  </si>
+  <si>
+    <t>RS044906</t>
+  </si>
+  <si>
+    <t>RS041040</t>
+  </si>
+  <si>
+    <t>RS010508</t>
+  </si>
+  <si>
+    <t>RS035430</t>
+  </si>
+  <si>
+    <t>RS043368</t>
+  </si>
+  <si>
+    <t>RS044887</t>
+  </si>
+  <si>
+    <t>RS041724</t>
+  </si>
+  <si>
+    <t>RS044888</t>
+  </si>
+  <si>
+    <t>RS035435</t>
+  </si>
+  <si>
+    <t>RS035436</t>
+  </si>
+  <si>
+    <t>MOS609</t>
+  </si>
+  <si>
+    <t>MOS546</t>
+  </si>
+  <si>
+    <t>MOS547</t>
+  </si>
+  <si>
+    <t>MOS538</t>
+  </si>
+  <si>
+    <t>MOS540</t>
+  </si>
+  <si>
+    <t>MOS610</t>
+  </si>
+  <si>
+    <t>MOS601</t>
+  </si>
+  <si>
+    <t>MOS549</t>
+  </si>
+  <si>
+    <t>MOS550</t>
+  </si>
+  <si>
+    <t>MOS533</t>
+  </si>
+  <si>
+    <t>MOS551</t>
+  </si>
+  <si>
+    <t>MOS611</t>
+  </si>
+  <si>
+    <t>MOS0636</t>
+  </si>
+  <si>
+    <t>MOS0628</t>
+  </si>
+  <si>
+    <t>MOS553</t>
+  </si>
+  <si>
+    <t>MOS554</t>
+  </si>
+  <si>
+    <t>MOS584</t>
+  </si>
+  <si>
+    <t>MOS545</t>
+  </si>
+  <si>
+    <t>MOS555</t>
+  </si>
+  <si>
+    <t>MOS559</t>
+  </si>
+  <si>
+    <t>MOS0631</t>
+  </si>
+  <si>
+    <t>MOS602</t>
+  </si>
+  <si>
+    <t>MOS0632</t>
+  </si>
+  <si>
+    <t>MOS560</t>
+  </si>
+  <si>
+    <t>MOS561</t>
+  </si>
+  <si>
+    <t>IMS0028073</t>
+  </si>
+  <si>
+    <t>IMS0028074</t>
+  </si>
+  <si>
+    <t>IMS0028064</t>
+  </si>
+  <si>
+    <t>IMS0028066</t>
+  </si>
+  <si>
+    <t>IMS0028076</t>
+  </si>
+  <si>
+    <t>IMS0028077</t>
+  </si>
+  <si>
+    <t>IMS0028068</t>
+  </si>
+  <si>
+    <t>IMS0028078</t>
+  </si>
+  <si>
+    <t>IMS0028080</t>
+  </si>
+  <si>
+    <t>IMS0028081</t>
+  </si>
+  <si>
+    <t>IMS0028072</t>
+  </si>
+  <si>
+    <t>IMS0028082</t>
+  </si>
+  <si>
+    <t>IMS0028086</t>
+  </si>
+  <si>
+    <t>IMS0028087</t>
+  </si>
+  <si>
+    <t>IMS0028088</t>
+  </si>
+  <si>
+    <t>DBBL Core</t>
+  </si>
+  <si>
+    <t>DBBL Agent</t>
+  </si>
+  <si>
+    <t>BHAIRAB BRANCH</t>
+  </si>
+  <si>
+    <t>090480193</t>
+  </si>
+  <si>
+    <t>090270608</t>
+  </si>
+  <si>
+    <t>090480672</t>
+  </si>
+  <si>
+    <t>Existing</t>
+  </si>
+  <si>
+    <t>7804723877</t>
+  </si>
+  <si>
+    <t>7803882666</t>
+  </si>
+  <si>
+    <t>19803617160000037</t>
+  </si>
+  <si>
+    <t>6468728446</t>
+  </si>
+  <si>
+    <t>6014624743</t>
+  </si>
+  <si>
+    <t>2829707278</t>
+  </si>
+  <si>
+    <t>4677776819</t>
+  </si>
+  <si>
+    <t>1026949071</t>
+  </si>
+  <si>
+    <t>7813470072</t>
+  </si>
+  <si>
+    <t>5123019746</t>
+  </si>
+  <si>
+    <t>3313474391</t>
+  </si>
+  <si>
+    <t>7810916242</t>
+  </si>
+  <si>
+    <t>4653880478</t>
+  </si>
+  <si>
+    <t>8220866647</t>
+  </si>
+  <si>
+    <t>6458683031</t>
+  </si>
+  <si>
+    <t>SR-23</t>
+  </si>
+  <si>
+    <t>SR-25</t>
+  </si>
+  <si>
+    <t>SR-20</t>
+  </si>
+  <si>
+    <t>SR-21</t>
   </si>
   <si>
     <t>SR-01</t>
+  </si>
+  <si>
+    <t>SR-02</t>
+  </si>
+  <si>
+    <t>SR-03</t>
+  </si>
+  <si>
+    <t>SR-06</t>
+  </si>
+  <si>
+    <t>SR-08</t>
+  </si>
+  <si>
+    <t>SR-07</t>
+  </si>
+  <si>
+    <t>SR-14</t>
+  </si>
+  <si>
+    <t>SR-15</t>
+  </si>
+  <si>
+    <t>SR-16</t>
+  </si>
+  <si>
+    <t>SR-17</t>
+  </si>
+  <si>
+    <t>SR-18</t>
+  </si>
+  <si>
+    <t>SR-19</t>
+  </si>
+  <si>
+    <t>SR-09</t>
+  </si>
+  <si>
+    <t>SR-13</t>
+  </si>
+  <si>
+    <t>SR-04</t>
+  </si>
+  <si>
+    <t>SR-05</t>
+  </si>
+  <si>
+    <t>SR-24</t>
+  </si>
+  <si>
+    <t>SR-10</t>
+  </si>
+  <si>
+    <t>SR-11</t>
+  </si>
+  <si>
+    <t>SR-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Md Rajib Miah (Alternate BP)	</t>
+  </si>
+  <si>
+    <t>RS045179</t>
+  </si>
+  <si>
+    <t>MOS0633</t>
+  </si>
+  <si>
+    <t>SR-27</t>
   </si>
 </sst>
 </file>
@@ -193,14 +604,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="[$-409]d/mmm/yy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-409]dd/mmm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d/mmm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]dd/mmm/yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,16 +645,231 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -532,25 +1169,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="Z11" sqref="Z11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
@@ -563,13 +1202,14 @@
     <col min="24" max="24" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="7" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
@@ -675,106 +1315,2643 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B2">
+        <v>1711000001</v>
+      </c>
+      <c r="C2">
+        <v>1923909896</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2">
+        <v>1409944001</v>
+      </c>
+      <c r="G2">
+        <v>1935593311</v>
+      </c>
+      <c r="H2">
+        <v>1611000001</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" t="s">
+        <v>137</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1731580054121</v>
+      </c>
+      <c r="N2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" t="s">
+        <v>38</v>
+      </c>
+      <c r="W2" t="s">
+        <v>39</v>
+      </c>
+      <c r="X2">
+        <v>8000</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>37174</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1963590458</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>45505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>1711000002</v>
+      </c>
+      <c r="C3">
+        <v>1911266077</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>1409944003</v>
+      </c>
+      <c r="G3">
         <v>1935593312</v>
       </c>
-      <c r="C2">
+      <c r="H3">
+        <v>1611000002</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1731580028841</v>
+      </c>
+      <c r="N3" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>33</v>
+      </c>
+      <c r="U3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3">
+        <v>7350</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>36392</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>44896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>1711000003</v>
+      </c>
+      <c r="C4">
         <v>1911266077</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4">
+        <v>1908441954</v>
+      </c>
+      <c r="G4">
+        <v>1935591829</v>
+      </c>
+      <c r="H4">
+        <v>1611000003</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1731030011186</v>
+      </c>
+      <c r="N4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P4" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q4" t="s">
         <v>35</v>
       </c>
-      <c r="F2">
+      <c r="R4" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4">
+        <v>9260</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>34856</v>
+      </c>
+      <c r="AB4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1711000004</v>
+      </c>
+      <c r="C5">
+        <v>1923909896</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5">
+        <v>1908441955</v>
+      </c>
+      <c r="G5">
+        <v>1935591837</v>
+      </c>
+      <c r="H5">
+        <v>1611000004</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1731510158618</v>
+      </c>
+      <c r="N5" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W5" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5">
+        <v>9662</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>29571</v>
+      </c>
+      <c r="AB5" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>1711000005</v>
+      </c>
+      <c r="C6">
+        <v>1923909896</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6">
         <v>1915270101</v>
       </c>
-      <c r="G2">
-        <v>1935659898</v>
-      </c>
-      <c r="H2">
-        <v>1732544444</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="G6">
+        <v>1935591856</v>
+      </c>
+      <c r="H6">
+        <v>1611000005</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="1">
+        <v>7017512906614</v>
+      </c>
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" t="s">
+        <v>141</v>
+      </c>
+      <c r="P6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="s">
         <v>36</v>
       </c>
-      <c r="J2" t="s">
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" t="s">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
+      <c r="V6" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6">
+        <v>8349</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>37235</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>43525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1711000006</v>
+      </c>
+      <c r="C7">
+        <v>1923909896</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7">
+        <v>1915270102</v>
+      </c>
+      <c r="G7">
+        <v>1935592000</v>
+      </c>
+      <c r="H7">
+        <v>1611000006</v>
+      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1731050036087</v>
+      </c>
+      <c r="N7" t="s">
+        <v>139</v>
+      </c>
+      <c r="O7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" t="s">
         <v>34</v>
       </c>
-      <c r="L2" t="s">
+      <c r="Q7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>33</v>
+      </c>
+      <c r="U7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="1">
-        <v>173654987987</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="W7" t="s">
         <v>39</v>
       </c>
-      <c r="O2">
-        <v>987654231</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="X7">
+        <v>8000</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z7" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="AA7" s="3">
+        <v>36987</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>4663478321</v>
+      </c>
+      <c r="AC7" t="s">
         <v>41</v>
       </c>
-      <c r="R2" t="s">
+      <c r="AD7" t="s">
         <v>42</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AE7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8">
+        <v>1711000007</v>
+      </c>
+      <c r="C8">
+        <v>1911266077</v>
+      </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8">
+        <v>1915270103</v>
+      </c>
+      <c r="G8">
+        <v>1935591914</v>
+      </c>
+      <c r="H8">
+        <v>1611000007</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" t="s">
+        <v>137</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2311580143256</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>142</v>
+      </c>
+      <c r="P8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U8" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" t="s">
         <v>39</v>
       </c>
-      <c r="T2" t="s">
+      <c r="X8">
+        <v>8000</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>36154</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1962327415</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9">
+        <v>1711000008</v>
+      </c>
+      <c r="C9">
+        <v>1911266077</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9">
+        <v>1915270106</v>
+      </c>
+      <c r="G9">
+        <v>1935591815</v>
+      </c>
+      <c r="H9">
+        <v>1611000008</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" t="s">
+        <v>137</v>
+      </c>
+      <c r="M9" s="1">
+        <v>2311580112831</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" t="s">
+        <v>36</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W9" t="s">
         <v>39</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X9">
+        <v>7500</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>37530</v>
+      </c>
+      <c r="AB9" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>1711000009</v>
+      </c>
+      <c r="C10">
+        <v>1911266077</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10">
+        <v>1915300196</v>
+      </c>
+      <c r="G10">
+        <v>1935591797</v>
+      </c>
+      <c r="H10">
+        <v>1611000009</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1731030011382</v>
+      </c>
+      <c r="N10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O10" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" t="s">
+        <v>36</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
+        <v>33</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10">
+        <v>7700</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>35430</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11">
+        <v>1711000010</v>
+      </c>
+      <c r="C11">
+        <v>1923909896</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11">
+        <v>1937600512</v>
+      </c>
+      <c r="G11">
+        <v>1935591796</v>
+      </c>
+      <c r="H11">
+        <v>1611000010</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1731050036120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>139</v>
+      </c>
+      <c r="O11" t="s">
+        <v>140</v>
+      </c>
+      <c r="P11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>35</v>
+      </c>
+      <c r="R11" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" t="s">
+        <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" t="s">
+        <v>38</v>
+      </c>
+      <c r="W11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11">
+        <v>7500</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>38048</v>
+      </c>
+      <c r="AB11" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12">
+        <v>1711000011</v>
+      </c>
+      <c r="C12">
+        <v>1911266077</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12">
+        <v>1984217911</v>
+      </c>
+      <c r="G12">
+        <v>1935591918</v>
+      </c>
+      <c r="H12">
+        <v>1611000011</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2311030047576</v>
+      </c>
+      <c r="N12" t="s">
         <v>43</v>
       </c>
-      <c r="V2" t="s">
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R12" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12" t="s">
+        <v>39</v>
+      </c>
+      <c r="X12">
+        <v>7300</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>35458</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>45108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>1711000012</v>
+      </c>
+      <c r="C13">
+        <v>1911266077</v>
+      </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13">
+        <v>1984217912</v>
+      </c>
+      <c r="G13">
+        <v>1935591999</v>
+      </c>
+      <c r="H13">
+        <v>1611000012</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2311580115240</v>
+      </c>
+      <c r="N13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" t="s">
+        <v>36</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" t="s">
+        <v>38</v>
+      </c>
+      <c r="W13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X13">
+        <v>8000</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>37184</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>2860896055</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>45536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14">
+        <v>1711000013</v>
+      </c>
+      <c r="C14">
+        <v>1923909896</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14">
+        <v>1984220363</v>
+      </c>
+      <c r="G14">
+        <v>1935591917</v>
+      </c>
+      <c r="H14">
+        <v>1611000013</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1731580062730</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>140</v>
+      </c>
+      <c r="P14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>35</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+      <c r="S14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X14">
+        <v>6500</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>33898</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>3327185207</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15">
+        <v>1711000014</v>
+      </c>
+      <c r="C15">
+        <v>1923909896</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15">
+        <v>1984220364</v>
+      </c>
+      <c r="G15">
+        <v>1935591855</v>
+      </c>
+      <c r="H15">
+        <v>1611000014</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15" t="s">
+        <v>137</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1731030011286</v>
+      </c>
+      <c r="N15" t="s">
+        <v>139</v>
+      </c>
+      <c r="O15" t="s">
+        <v>140</v>
+      </c>
+      <c r="P15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" t="s">
+        <v>38</v>
+      </c>
+      <c r="W15" t="s">
+        <v>39</v>
+      </c>
+      <c r="X15">
+        <v>8500</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>32874</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>4815411515593</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>1711000015</v>
+      </c>
+      <c r="C16">
+        <v>1911266077</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16">
+        <v>1984220365</v>
+      </c>
+      <c r="G16">
+        <v>1935591913</v>
+      </c>
+      <c r="H16">
+        <v>1611000015</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1731030011132</v>
+      </c>
+      <c r="N16" t="s">
+        <v>139</v>
+      </c>
+      <c r="O16" t="s">
+        <v>140</v>
+      </c>
+      <c r="P16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" t="s">
+        <v>36</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" t="s">
+        <v>38</v>
+      </c>
+      <c r="W16" t="s">
+        <v>39</v>
+      </c>
+      <c r="X16">
+        <v>8404</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA16" s="3">
+        <v>36114</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>43709</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>1711000016</v>
+      </c>
+      <c r="C17">
+        <v>1911266077</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>87</v>
+      </c>
+      <c r="F17">
+        <v>1984220366</v>
+      </c>
+      <c r="G17">
+        <v>1935592054</v>
+      </c>
+      <c r="H17">
+        <v>1611000016</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>112</v>
+      </c>
+      <c r="K17" t="s">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s">
+        <v>137</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1731510173296</v>
+      </c>
+      <c r="N17" t="s">
+        <v>139</v>
+      </c>
+      <c r="O17" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R17" t="s">
+        <v>36</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" t="s">
+        <v>39</v>
+      </c>
+      <c r="X17">
+        <v>8580</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>36318</v>
+      </c>
+      <c r="AB17" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>1711000017</v>
+      </c>
+      <c r="C18">
+        <v>1923909896</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18">
+        <v>1986646474</v>
+      </c>
+      <c r="G18">
+        <v>1935592053</v>
+      </c>
+      <c r="H18">
+        <v>1611000017</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" t="s">
+        <v>113</v>
+      </c>
+      <c r="K18" t="s">
+        <v>63</v>
+      </c>
+      <c r="L18" t="s">
+        <v>138</v>
+      </c>
+      <c r="M18" s="1">
+        <v>7017332507958</v>
+      </c>
+      <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>35</v>
+      </c>
+      <c r="R18" t="s">
+        <v>36</v>
+      </c>
+      <c r="S18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s">
+        <v>39</v>
+      </c>
+      <c r="X18">
+        <v>9350</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>32174</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>9164520299</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>1711000018</v>
+      </c>
+      <c r="C19">
+        <v>1923909896</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19">
+        <v>1986686880</v>
+      </c>
+      <c r="G19">
+        <v>1935591915</v>
+      </c>
+      <c r="H19">
+        <v>1611000018</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
+        <v>137</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1731030011127</v>
+      </c>
+      <c r="N19" t="s">
+        <v>139</v>
+      </c>
+      <c r="O19" t="s">
+        <v>140</v>
+      </c>
+      <c r="P19" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>35</v>
+      </c>
+      <c r="R19" t="s">
+        <v>36</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" t="s">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" t="s">
+        <v>39</v>
+      </c>
+      <c r="X19">
+        <v>7350</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>36557</v>
+      </c>
+      <c r="AB19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>44986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>1711000026</v>
+      </c>
+      <c r="C20">
+        <v>1911266077</v>
+      </c>
+      <c r="D20" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20">
+        <v>1953610129</v>
+      </c>
+      <c r="G20">
+        <v>1999968538</v>
+      </c>
+      <c r="H20">
+        <v>1728303060</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" t="s">
+        <v>137</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1731030011128</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" t="s">
+        <v>39</v>
+      </c>
+      <c r="X20">
+        <v>7350</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>36558</v>
+      </c>
+      <c r="AB20" s="5">
+        <v>3313474392</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>44987</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>1711000019</v>
+      </c>
+      <c r="C21">
+        <v>1923909897</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21">
+        <v>1409944002</v>
+      </c>
+      <c r="G21">
+        <v>1935593313</v>
+      </c>
+      <c r="H21">
+        <v>1611000019</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="J21" t="s">
+        <v>115</v>
+      </c>
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" t="s">
+        <v>137</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2311580116708</v>
+      </c>
+      <c r="N21" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+      <c r="P21" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>35</v>
+      </c>
+      <c r="R21" t="s">
+        <v>36</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s">
+        <v>38</v>
+      </c>
+      <c r="W21" t="s">
+        <v>39</v>
+      </c>
+      <c r="X21">
+        <v>7000</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>37500</v>
+      </c>
+      <c r="AB21" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF21" t="s">
         <v>44</v>
       </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2">
-        <v>8500</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="AG21" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>33268</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>4821165498788</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="B22">
+        <v>1711000020</v>
+      </c>
+      <c r="C22">
+        <v>1923909897</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>1915270104</v>
+      </c>
+      <c r="G22">
+        <v>1935591816</v>
+      </c>
+      <c r="H22">
+        <v>1611000020</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" t="s">
+        <v>116</v>
+      </c>
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" t="s">
+        <v>137</v>
+      </c>
+      <c r="M22" s="1">
+        <v>2311580119700</v>
+      </c>
+      <c r="N22" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>35</v>
+      </c>
+      <c r="R22" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" t="s">
         <v>39</v>
       </c>
-      <c r="AF2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>45413</v>
+      <c r="X22">
+        <v>7500</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>36302</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>45292</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23">
+        <v>1711000021</v>
+      </c>
+      <c r="C23">
+        <v>1923909897</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23">
+        <v>1915270105</v>
+      </c>
+      <c r="G23">
+        <v>1935591916</v>
+      </c>
+      <c r="H23">
+        <v>1611000021</v>
+      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" t="s">
+        <v>137</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2311580180685</v>
+      </c>
+      <c r="N23" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>35</v>
+      </c>
+      <c r="R23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S23" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s">
+        <v>38</v>
+      </c>
+      <c r="W23" t="s">
+        <v>39</v>
+      </c>
+      <c r="X23">
+        <v>7000</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>38153</v>
+      </c>
+      <c r="AB23" s="5">
+        <v>1974696369</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1711000022</v>
+      </c>
+      <c r="C24">
+        <v>1923909897</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F24">
+        <v>1967042950</v>
+      </c>
+      <c r="G24">
+        <v>1935592484</v>
+      </c>
+      <c r="H24">
+        <v>1611000022</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" t="s">
+        <v>118</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>137</v>
+      </c>
+      <c r="M24" s="1">
+        <v>2311580121330</v>
+      </c>
+      <c r="N24" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>35</v>
+      </c>
+      <c r="R24" t="s">
+        <v>36</v>
+      </c>
+      <c r="S24" t="s">
+        <v>33</v>
+      </c>
+      <c r="T24" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s">
+        <v>38</v>
+      </c>
+      <c r="W24" t="s">
+        <v>39</v>
+      </c>
+      <c r="X24">
+        <v>7000</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>38443</v>
+      </c>
+      <c r="AB24" s="5">
+        <v>3774949956</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>45474</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25">
+        <v>1711000023</v>
+      </c>
+      <c r="C25">
+        <v>1923909897</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25">
+        <v>1986686877</v>
+      </c>
+      <c r="G25">
+        <v>1935591836</v>
+      </c>
+      <c r="H25">
+        <v>1611000023</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" t="s">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s">
+        <v>137</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2311580181156</v>
+      </c>
+      <c r="N25" t="s">
+        <v>43</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R25" t="s">
+        <v>36</v>
+      </c>
+      <c r="S25" t="s">
+        <v>33</v>
+      </c>
+      <c r="T25" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" t="s">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s">
+        <v>38</v>
+      </c>
+      <c r="W25" t="s">
+        <v>39</v>
+      </c>
+      <c r="X25">
+        <v>7000</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>37483</v>
+      </c>
+      <c r="AB25" s="5">
+        <v>7359257743</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>1711000024</v>
+      </c>
+      <c r="C26">
+        <v>1923909897</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26">
+        <v>1986686878</v>
+      </c>
+      <c r="G26">
+        <v>1935591828</v>
+      </c>
+      <c r="H26">
+        <v>1611000024</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="J26" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" t="s">
+        <v>137</v>
+      </c>
+      <c r="M26" s="1">
+        <v>1731030011244</v>
+      </c>
+      <c r="N26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O26" t="s">
+        <v>140</v>
+      </c>
+      <c r="P26" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>35</v>
+      </c>
+      <c r="R26" t="s">
+        <v>36</v>
+      </c>
+      <c r="S26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T26" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s">
+        <v>38</v>
+      </c>
+      <c r="W26" t="s">
+        <v>39</v>
+      </c>
+      <c r="X26">
+        <v>7350</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>35286</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27">
+        <v>1711000025</v>
+      </c>
+      <c r="C27">
+        <v>1923909897</v>
+      </c>
+      <c r="D27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>1986686879</v>
+      </c>
+      <c r="G27">
+        <v>1935592119</v>
+      </c>
+      <c r="H27">
+        <v>1611000025</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" t="s">
+        <v>137</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2311580116900</v>
+      </c>
+      <c r="N27" t="s">
+        <v>43</v>
+      </c>
+      <c r="O27" t="s">
+        <v>142</v>
+      </c>
+      <c r="P27" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>35</v>
+      </c>
+      <c r="R27" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" t="s">
+        <v>38</v>
+      </c>
+      <c r="W27" t="s">
+        <v>39</v>
+      </c>
+      <c r="X27">
+        <v>7500</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>37244</v>
+      </c>
+      <c r="AB27" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>45292</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B19 B21:B1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="duplicateValues" dxfId="19" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:I1048576">
+    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB1:AB1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="duplicateValues" dxfId="11" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF1:AF1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>